--- a/RTM/RTM_Master.xlsx
+++ b/RTM/RTM_Master.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\hockyVII\kiem_thu_phan_mem\bai_tap\MANUAL-TESTING-GROUP-3\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159622F-DBA2-40FD-892C-65E30692607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B33470-9917-4FEB-ADC3-2FA265B893FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9D1FBFAD-DF80-400D-88C6-2ACA06340E88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Requirement" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirement" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
-    <t>Req ID</t>
-  </si>
-  <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>Test Case IDs</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -101,69 +89,12 @@
     <t>Covered</t>
   </si>
   <si>
-    <t>Người dùng đăng ký bằng email hợp lệ</t>
-  </si>
-  <si>
-    <t>Không cho đăng ký khi email sai định dạng</t>
-  </si>
-  <si>
     <t>Mật khẩu tối thiểu 8 ký tự</t>
   </si>
   <si>
-    <t>Đăng nhập thành công với thông tin hợp lệ</t>
-  </si>
-  <si>
-    <t>Đăng nhập thất bại khi sai mật khẩu</t>
-  </si>
-  <si>
-    <t>Quên mật khẩu gửi email đặt lại</t>
-  </si>
-  <si>
-    <t>Tìm kiếm hiển thị đúng kết quả</t>
-  </si>
-  <si>
-    <t>Lọc theo giá hoạt động đúng</t>
-  </si>
-  <si>
-    <t>Xem chi tiết sản phẩm</t>
-  </si>
-  <si>
-    <t>Cập nhật số lượng trong giỏ</t>
-  </si>
-  <si>
     <t>Xóa sản phẩm khỏi giỏ</t>
   </si>
   <si>
-    <t>Thêm sản phẩm vào giỏ thành công</t>
-  </si>
-  <si>
-    <t>Thanh toán bắt buộc nhập địa chỉ</t>
-  </si>
-  <si>
-    <t>Chọn phương thức thanh toán</t>
-  </si>
-  <si>
-    <t>Đặt hàng thành công</t>
-  </si>
-  <si>
-    <t>Lưu lịch sử đơn hàng</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Auth</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Cart</t>
-  </si>
-  <si>
-    <t>Checkout</t>
-  </si>
-  <si>
     <t>TC_AUTH_001, TC_AUTH_002</t>
   </si>
   <si>
@@ -176,47 +107,116 @@
     <t>TC_AUTH_006, TC_AUTH_007, TC_AUTH_008, TC_AUTH_009</t>
   </si>
   <si>
-    <t>TC_AUTH_005, TC_AUTH_010, TC_AUTH_011, TC_AUTH_012, TC_AUTH_015</t>
-  </si>
-  <si>
-    <t>TC_AUTH_013, TC_AUTH_014</t>
-  </si>
-  <si>
-    <t>TC_CART_005, TC_CART_011</t>
-  </si>
-  <si>
-    <t>TC_CHECK_009, TC_CHECK_010, TC_CHECK_011</t>
-  </si>
-  <si>
-    <t>TC_CHECK_007, TC_CHECK_008, TC_CHECK_012</t>
-  </si>
-  <si>
-    <t>TC_CHECK_004, TC_CHECK_005, TC_CHECK_006</t>
-  </si>
-  <si>
-    <t>TC_CHECK_001, TC_CHECK_002, TC_CHECK_003</t>
-  </si>
-  <si>
-    <t>TC_CART_004, TC_CART_006, TC_CART_007, TC_CART_008, TC_CART_009, TC_CART_013</t>
-  </si>
-  <si>
-    <t>TC_CART_001, TC_CART_002, TC_CART_003, TC_CART_010, TC_CART_014, TC_CART_015</t>
-  </si>
-  <si>
-    <t>TC_PROD_009, TC_PROD_010, TC_PROD_011, TC_PROD_012</t>
-  </si>
-  <si>
-    <t>TC_PROD_005, TC_PROD_006, TC_PROD_007, TC_PROD_008</t>
-  </si>
-  <si>
     <t>TC_PROD_001, TC_PROD_002, TC_PROD_003, TC_PROD_004</t>
+  </si>
+  <si>
+    <t>Mã yêu cầu (Req_ID)</t>
+  </si>
+  <si>
+    <t>Phân hệ (Module)</t>
+  </si>
+  <si>
+    <t>Mô tả yêu cầu (Requirement Description)</t>
+  </si>
+  <si>
+    <t>Mã kịch bản (Test Case IDs Mapping)</t>
+  </si>
+  <si>
+    <t>Trạng thái độ phủ (Coverage Status)</t>
+  </si>
+  <si>
+    <t>Xác thực</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản người dùng mới</t>
+  </si>
+  <si>
+    <t>Xử lý lỗi thư điện tử (Email) sai định dạng</t>
+  </si>
+  <si>
+    <t>Đăng nhập, Đăng xuất, Quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>TC_AUTH_005, TC_AUTH_010, TC_AUTH_011, TC_AUTH_012, TC_AUTH_014, TC_AUTH_015</t>
+  </si>
+  <si>
+    <t>Đăng nhập thất bại &amp; Kiểm tra bảo mật</t>
+  </si>
+  <si>
+    <t>Tính năng Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>TC_AUTH_013</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm &amp; Xử lý ngoại lệ</t>
+  </si>
+  <si>
+    <t>Bộ lọc theo Danh mục / Thương hiệu</t>
+  </si>
+  <si>
+    <t>TC_PROD_005, TC_PROD_006, TC_PROD_007</t>
+  </si>
+  <si>
+    <t>Xem chi tiết sản phẩm &amp; Đánh giá</t>
+  </si>
+  <si>
+    <t>TC_PROD_008, TC_PROD_009, TC_PROD_010, TC_PROD_011, TC_PROD_012</t>
+  </si>
+  <si>
+    <t>Giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm &amp; Xử lý phiên (Session)</t>
+  </si>
+  <si>
+    <t>TC_CART_001, TC_CART_002, TC_CART_003, TC_CART_004, TC_CART_012, TC_CART_013, TC_CART_014, TC_CART_015</t>
+  </si>
+  <si>
+    <t>Cập nhật số lượng (Kể cả số âm/không hợp lệ)</t>
+  </si>
+  <si>
+    <t>TC_CART_005, TC_CART_006, TC_CART_007, TC_CART_008, TC_CART_009</t>
+  </si>
+  <si>
+    <t>TC_CART_010, TC_CART_011</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Xác minh thông tin giao hàng &amp; Tài khoản</t>
+  </si>
+  <si>
+    <t>TC_CHECK_001, TC_CHECK_011</t>
+  </si>
+  <si>
+    <t>Xử lý giao dịch &amp; Xác thực thẻ thanh toán</t>
+  </si>
+  <si>
+    <t>TC_CHECK_003, TC_CHECK_004, TC_CHECK_005, TC_CHECK_006, TC_CHECK_007, TC_CHECK_012</t>
+  </si>
+  <si>
+    <t>Hoàn tất đơn hàng &amp; Ghi chú/Hóa đơn</t>
+  </si>
+  <si>
+    <t>TC_CHECK_002, TC_CHECK_008, TC_CHECK_009</t>
+  </si>
+  <si>
+    <t>Xem lịch sử đơn hàng</t>
+  </si>
+  <si>
+    <t>TC_CHECK_010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,25 +226,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C481F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A3243"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF133819"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F4170"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,7 +271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF356854"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,16 +300,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -291,8 +361,128 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
+        <sz val="12"/>
+        <color rgb="FF434343"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF434343"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF434343"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF434343"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -309,98 +499,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color auto="1"/>
+        <sz val="12"/>
+        <color rgb="FF434343"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -408,9 +508,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFF6F8F9"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,16 +527,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C94EFDFD-A7B5-418C-A2DD-F1D42A70A035}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E17" xr:uid="{C94EFDFD-A7B5-418C-A2DD-F1D42A70A035}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD16BB39-31E2-44D1-A967-AC2BE2B622F3}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:E17" xr:uid="{DD16BB39-31E2-44D1-A967-AC2BE2B622F3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{87AF0F34-DED2-4B84-9650-D334AFC104A8}" name="Req ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CAC78050-E0DA-40CF-BB05-5A7A07590B2F}" name="Requirement" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C7BA44E4-A272-4E0A-9B9D-02DA8067F446}" name="Module" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B470D39B-7EEC-44AC-99EC-CE730E8E0AF5}" name="Test Case IDs" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{457A61E2-00A9-41B0-ABB3-8F899C10FEDB}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BEC38A9D-BDD0-49A4-B997-75EB344AA6AD}" name="Mã yêu cầu (Req_ID)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3B578B0F-0B73-47D6-8117-27DACF852630}" name="Phân hệ (Module)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E81981B9-EE59-45BD-8333-2A339EC9E5F0}" name="Mô tả yêu cầu (Requirement Description)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{AC454638-C7F4-4E08-B5CA-84623170AD32}" name="Mã kịch bản (Test Case IDs Mapping)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6A073037-4F78-4FE3-9C02-887FC4AD8980}" name="Trạng thái độ phủ (Coverage Status)" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -755,316 +856,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E836EA-7A11-4099-8167-F06EC10C1DE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6444C1E5-63A6-4F68-A7EA-C66D4A77FE33}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.265625" customWidth="1"/>
-    <col min="2" max="2" width="44.53125" customWidth="1"/>
-    <col min="3" max="3" width="11.06640625" customWidth="1"/>
-    <col min="4" max="4" width="98.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.06640625" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="3" max="3" width="34.265625" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="61.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="76.900000000000006" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Covered">
+      <formula>NOT(ISERROR(SEARCH("Covered",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>